--- a/Code/Results/Cases/Case_1_94/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_94/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9904331619606676</v>
+        <v>1.024745733218082</v>
       </c>
       <c r="D2">
-        <v>1.041919665691323</v>
+        <v>1.049606799248559</v>
       </c>
       <c r="E2">
-        <v>1.011203698343633</v>
+        <v>1.036776901417529</v>
       </c>
       <c r="F2">
-        <v>1.02959716080051</v>
+        <v>1.051638280568072</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.057797422607535</v>
+        <v>1.039231582915969</v>
       </c>
       <c r="J2">
-        <v>1.01290382989363</v>
+        <v>1.029918625759161</v>
       </c>
       <c r="K2">
-        <v>1.052824323897521</v>
+        <v>1.052363388078976</v>
       </c>
       <c r="L2">
-        <v>1.022509123679044</v>
+        <v>1.039569674389972</v>
       </c>
       <c r="M2">
-        <v>1.040659002444015</v>
+        <v>1.054389227793618</v>
       </c>
       <c r="N2">
-        <v>1.008311132779805</v>
+        <v>1.014014349005517</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9948639135115163</v>
+        <v>1.025679754426089</v>
       </c>
       <c r="D3">
-        <v>1.045527344134303</v>
+        <v>1.050292319505274</v>
       </c>
       <c r="E3">
-        <v>1.014927762858425</v>
+        <v>1.037593648790926</v>
       </c>
       <c r="F3">
-        <v>1.033788531669704</v>
+        <v>1.052510448914736</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05914530799548</v>
+        <v>1.039382792865286</v>
       </c>
       <c r="J3">
-        <v>1.015495579470025</v>
+        <v>1.030491765034563</v>
       </c>
       <c r="K3">
-        <v>1.055609038438472</v>
+        <v>1.052861515574064</v>
       </c>
       <c r="L3">
-        <v>1.025373137681693</v>
+        <v>1.040196074380964</v>
       </c>
       <c r="M3">
-        <v>1.044006591701732</v>
+        <v>1.055073929407504</v>
       </c>
       <c r="N3">
-        <v>1.009175291352295</v>
+        <v>1.01420451217778</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C4">
-        <v>0.997671124945529</v>
+        <v>1.026284387139818</v>
       </c>
       <c r="D4">
-        <v>1.047797312416628</v>
+        <v>1.050733584677209</v>
       </c>
       <c r="E4">
-        <v>1.01728896249323</v>
+        <v>1.038122176026911</v>
       </c>
       <c r="F4">
-        <v>1.036436201683592</v>
+        <v>1.053073575717682</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.059976346635497</v>
+        <v>1.039477811958181</v>
       </c>
       <c r="J4">
-        <v>1.017134591778316</v>
+        <v>1.030862283780101</v>
       </c>
       <c r="K4">
-        <v>1.057351160696391</v>
+        <v>1.053180851901997</v>
       </c>
       <c r="L4">
-        <v>1.027183108670008</v>
+        <v>1.040600785779166</v>
       </c>
       <c r="M4">
-        <v>1.046113896587845</v>
+        <v>1.055515116286644</v>
       </c>
       <c r="N4">
-        <v>1.00972166936038</v>
+        <v>1.014327415501061</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9988374842169652</v>
+        <v>1.026538635791623</v>
       </c>
       <c r="D5">
-        <v>1.048736580378115</v>
+        <v>1.050918536960051</v>
       </c>
       <c r="E5">
-        <v>1.018270376948549</v>
+        <v>1.038344376388188</v>
       </c>
       <c r="F5">
-        <v>1.037534322605872</v>
+        <v>1.053310019406072</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.060316052516457</v>
+        <v>1.039517080790841</v>
       </c>
       <c r="J5">
-        <v>1.017814818815898</v>
+        <v>1.03101796743739</v>
       </c>
       <c r="K5">
-        <v>1.058069572378267</v>
+        <v>1.053314384312616</v>
       </c>
       <c r="L5">
-        <v>1.027933983689659</v>
+        <v>1.040770778979461</v>
       </c>
       <c r="M5">
-        <v>1.046986113605546</v>
+        <v>1.055700144144649</v>
       </c>
       <c r="N5">
-        <v>1.009948399275695</v>
+        <v>1.014379049041113</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.999032526868375</v>
+        <v>1.026581328815064</v>
       </c>
       <c r="D6">
-        <v>1.048893417656779</v>
+        <v>1.050949558621761</v>
       </c>
       <c r="E6">
-        <v>1.018434512722505</v>
+        <v>1.038381685206994</v>
       </c>
       <c r="F6">
-        <v>1.037717837739889</v>
+        <v>1.05334970200362</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.060372529156141</v>
+        <v>1.039523634455435</v>
       </c>
       <c r="J6">
-        <v>1.017928523204957</v>
+        <v>1.031044102549844</v>
       </c>
       <c r="K6">
-        <v>1.058189386608418</v>
+        <v>1.053336762916419</v>
       </c>
       <c r="L6">
-        <v>1.028059479174663</v>
+        <v>1.040799312904771</v>
       </c>
       <c r="M6">
-        <v>1.047131770458625</v>
+        <v>1.055731184869974</v>
       </c>
       <c r="N6">
-        <v>1.009986296874446</v>
+        <v>1.01438771647711</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9976867634220299</v>
+        <v>1.026287784183902</v>
       </c>
       <c r="D7">
-        <v>1.047809921490626</v>
+        <v>1.050736058204455</v>
       </c>
       <c r="E7">
-        <v>1.017302119851168</v>
+        <v>1.038125145051266</v>
       </c>
       <c r="F7">
-        <v>1.036450933012501</v>
+        <v>1.053076736250477</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.059980923533011</v>
+        <v>1.039478339332684</v>
       </c>
       <c r="J7">
-        <v>1.017143715265327</v>
+        <v>1.030864364357733</v>
       </c>
       <c r="K7">
-        <v>1.057360814637905</v>
+        <v>1.053182638986734</v>
       </c>
       <c r="L7">
-        <v>1.02719318093194</v>
+        <v>1.040603057817562</v>
       </c>
       <c r="M7">
-        <v>1.046125604507028</v>
+        <v>1.055517590396889</v>
       </c>
       <c r="N7">
-        <v>1.009724710474658</v>
+        <v>1.014328105568946</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9919432547734399</v>
+        <v>1.025061336028103</v>
       </c>
       <c r="D8">
-        <v>1.043152488875206</v>
+        <v>1.049838951592644</v>
       </c>
       <c r="E8">
-        <v>1.012472545853338</v>
+        <v>1.037052916526958</v>
       </c>
       <c r="F8">
-        <v>1.031027282089981</v>
+        <v>1.051933286469394</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.058261578546935</v>
+        <v>1.039283269037104</v>
       </c>
       <c r="J8">
-        <v>1.013787775709129</v>
+        <v>1.030112390889133</v>
       </c>
       <c r="K8">
-        <v>1.053778014960923</v>
+        <v>1.052532349658661</v>
       </c>
       <c r="L8">
-        <v>1.023486177989033</v>
+        <v>1.039781495096846</v>
       </c>
       <c r="M8">
-        <v>1.041802751516472</v>
+        <v>1.054621010251458</v>
       </c>
       <c r="N8">
-        <v>1.008605886160902</v>
+        <v>1.014078645369558</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9813398043508219</v>
+        <v>1.022902193796433</v>
       </c>
       <c r="D9">
-        <v>1.034432753070235</v>
+        <v>1.048240513146687</v>
       </c>
       <c r="E9">
-        <v>1.003572404407731</v>
+        <v>1.035163855848316</v>
       </c>
       <c r="F9">
-        <v>1.020954458612129</v>
+        <v>1.049909076536553</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.054907932930285</v>
+        <v>1.038917952498597</v>
       </c>
       <c r="J9">
-        <v>1.007569158329795</v>
+        <v>1.02878474549903</v>
       </c>
       <c r="K9">
-        <v>1.046990836100069</v>
+        <v>1.051363671099026</v>
       </c>
       <c r="L9">
-        <v>1.016607786527221</v>
+        <v>1.038329163650463</v>
       </c>
       <c r="M9">
-        <v>1.033716472446996</v>
+        <v>1.053026938859836</v>
       </c>
       <c r="N9">
-        <v>1.006531892686076</v>
+        <v>1.013637967888356</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.973909233711547</v>
+        <v>1.021464167088691</v>
       </c>
       <c r="D10">
-        <v>1.028246056951283</v>
+        <v>1.047163152865996</v>
       </c>
       <c r="E10">
-        <v>0.9973496795626867</v>
+        <v>1.033904789756183</v>
       </c>
       <c r="F10">
-        <v>1.013859272805147</v>
+        <v>1.048553440379353</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.052440932591677</v>
+        <v>1.038659964896189</v>
       </c>
       <c r="J10">
-        <v>1.003197671623559</v>
+        <v>1.027897967487849</v>
       </c>
       <c r="K10">
-        <v>1.042123384593396</v>
+        <v>1.050569335272481</v>
       </c>
       <c r="L10">
-        <v>1.011766951814072</v>
+        <v>1.037357891010396</v>
       </c>
       <c r="M10">
-        <v>1.027982722747215</v>
+        <v>1.051954778524046</v>
       </c>
       <c r="N10">
-        <v>1.005073560725495</v>
+        <v>1.013343463122549</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9705969036902451</v>
+        <v>1.020841826904105</v>
       </c>
       <c r="D11">
-        <v>1.025471518114146</v>
+        <v>1.046693883290853</v>
       </c>
       <c r="E11">
-        <v>0.9945799360686423</v>
+        <v>1.03335968871655</v>
       </c>
       <c r="F11">
-        <v>1.010688741153571</v>
+        <v>1.047964991684629</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.051314545533252</v>
+        <v>1.038544840510274</v>
       </c>
       <c r="J11">
-        <v>1.001246191132953</v>
+        <v>1.027513593657428</v>
       </c>
       <c r="K11">
-        <v>1.039928551131484</v>
+        <v>1.050221790361723</v>
       </c>
       <c r="L11">
-        <v>1.009604795861081</v>
+        <v>1.036936608022751</v>
       </c>
       <c r="M11">
-        <v>1.025411859873968</v>
+        <v>1.051488298490576</v>
       </c>
       <c r="N11">
-        <v>1.004422489812864</v>
+        <v>1.013215772106622</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9693514705564705</v>
+        <v>1.020610712985719</v>
       </c>
       <c r="D12">
-        <v>1.024425908159863</v>
+        <v>1.046519161888694</v>
       </c>
       <c r="E12">
-        <v>0.9935392115186956</v>
+        <v>1.033157227550214</v>
       </c>
       <c r="F12">
-        <v>1.009495549962973</v>
+        <v>1.047746199263504</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.050887110296647</v>
+        <v>1.038501566209243</v>
       </c>
       <c r="J12">
-        <v>1.000512054887268</v>
+        <v>1.027370761752021</v>
       </c>
       <c r="K12">
-        <v>1.039099645276114</v>
+        <v>1.050092158529936</v>
       </c>
       <c r="L12">
-        <v>1.008791245704666</v>
+        <v>1.036780018204436</v>
       </c>
       <c r="M12">
-        <v>1.02444306361654</v>
+        <v>1.051314693679729</v>
       </c>
       <c r="N12">
-        <v>1.004177555294126</v>
+        <v>1.013168316924544</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9696193170098867</v>
+        <v>1.020660285390849</v>
       </c>
       <c r="D13">
-        <v>1.024650885835621</v>
+        <v>1.046556658920619</v>
       </c>
       <c r="E13">
-        <v>0.993763000107145</v>
+        <v>1.033200655522154</v>
       </c>
       <c r="F13">
-        <v>1.009752208255015</v>
+        <v>1.04779314075043</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.050979211095934</v>
+        <v>1.038510871846914</v>
       </c>
       <c r="J13">
-        <v>1.000669956928433</v>
+        <v>1.027401402309829</v>
       </c>
       <c r="K13">
-        <v>1.039278075182721</v>
+        <v>1.050119989327629</v>
       </c>
       <c r="L13">
-        <v>1.008966235469567</v>
+        <v>1.036813612059138</v>
       </c>
       <c r="M13">
-        <v>1.024651511602972</v>
+        <v>1.051351947565453</v>
       </c>
       <c r="N13">
-        <v>1.004230237335965</v>
+        <v>1.013178497351721</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9704942686171616</v>
+        <v>1.020822721912856</v>
       </c>
       <c r="D14">
-        <v>1.025385398062058</v>
+        <v>1.046679449196768</v>
       </c>
       <c r="E14">
-        <v>0.9944941562774731</v>
+        <v>1.033342952928587</v>
       </c>
       <c r="F14">
-        <v>1.01059043262703</v>
+        <v>1.047946910641071</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.05127939997543</v>
+        <v>1.038541273881887</v>
       </c>
       <c r="J14">
-        <v>1.001185699112663</v>
+        <v>1.027501788313854</v>
       </c>
       <c r="K14">
-        <v>1.03986031521644</v>
+        <v>1.050211085924103</v>
       </c>
       <c r="L14">
-        <v>1.00953776336728</v>
+        <v>1.036923666427923</v>
       </c>
       <c r="M14">
-        <v>1.025332065462269</v>
+        <v>1.051473955055704</v>
       </c>
       <c r="N14">
-        <v>1.004402307565459</v>
+        <v>1.01321184995604</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9710313300015597</v>
+        <v>1.020922811183189</v>
       </c>
       <c r="D15">
-        <v>1.025835944349074</v>
+        <v>1.046755049557446</v>
       </c>
       <c r="E15">
-        <v>0.9949430473784234</v>
+        <v>1.033430628898143</v>
       </c>
       <c r="F15">
-        <v>1.011104811105929</v>
+        <v>1.048041624714135</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.051463148130459</v>
+        <v>1.038559937764736</v>
       </c>
       <c r="J15">
-        <v>1.001502222078483</v>
+        <v>1.027563631733045</v>
       </c>
       <c r="K15">
-        <v>1.040217227109769</v>
+        <v>1.050267142274687</v>
       </c>
       <c r="L15">
-        <v>1.009888502805059</v>
+        <v>1.036991460464477</v>
       </c>
       <c r="M15">
-        <v>1.025749520635569</v>
+        <v>1.051549083762683</v>
       </c>
       <c r="N15">
-        <v>1.004507910470448</v>
+        <v>1.013232396284331</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9741269938581232</v>
+        <v>1.021505476866041</v>
       </c>
       <c r="D16">
-        <v>1.02842812404677</v>
+        <v>1.047194238622486</v>
       </c>
       <c r="E16">
-        <v>0.9975318614553585</v>
+        <v>1.033940968164234</v>
       </c>
       <c r="F16">
-        <v>1.014067557295895</v>
+        <v>1.048592463363565</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.052514436146838</v>
+        <v>1.038667533473614</v>
       </c>
       <c r="J16">
-        <v>1.003325911380884</v>
+        <v>1.027923468891651</v>
       </c>
       <c r="K16">
-        <v>1.042267165601783</v>
+        <v>1.05059232512948</v>
       </c>
       <c r="L16">
-        <v>1.011909013106881</v>
+        <v>1.037385835180243</v>
       </c>
       <c r="M16">
-        <v>1.028151433691308</v>
+        <v>1.051985690448207</v>
       </c>
       <c r="N16">
-        <v>1.005116344363867</v>
+        <v>1.01335193402701</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9760428579756731</v>
+        <v>1.021871057753944</v>
       </c>
       <c r="D17">
-        <v>1.030028074517133</v>
+        <v>1.047468991135284</v>
       </c>
       <c r="E17">
-        <v>0.9991351884314497</v>
+        <v>1.034261113531735</v>
       </c>
       <c r="F17">
-        <v>1.015899187294663</v>
+        <v>1.048937602853318</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.053158100752424</v>
+        <v>1.038734112055971</v>
       </c>
       <c r="J17">
-        <v>1.004453856932508</v>
+        <v>1.028149080494599</v>
       </c>
       <c r="K17">
-        <v>1.04352931979774</v>
+        <v>1.050795343079931</v>
       </c>
       <c r="L17">
-        <v>1.013158397937163</v>
+        <v>1.037633025123891</v>
       </c>
       <c r="M17">
-        <v>1.02963407303254</v>
+        <v>1.052258966846001</v>
       </c>
       <c r="N17">
-        <v>1.005492646202989</v>
+        <v>1.013426871967402</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9771512577900865</v>
+        <v>1.022084327169375</v>
       </c>
       <c r="D18">
-        <v>1.030952115342136</v>
+        <v>1.047628982689371</v>
       </c>
       <c r="E18">
-        <v>1.000063163740354</v>
+        <v>1.034447856827681</v>
       </c>
       <c r="F18">
-        <v>1.016958118068585</v>
+        <v>1.049138776953104</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.053527949820811</v>
+        <v>1.038772616748315</v>
       </c>
       <c r="J18">
-        <v>1.005106147874714</v>
+        <v>1.028280637950342</v>
       </c>
       <c r="K18">
-        <v>1.044257139004678</v>
+        <v>1.050913413315588</v>
       </c>
       <c r="L18">
-        <v>1.01388080698493</v>
+        <v>1.037777137736096</v>
       </c>
       <c r="M18">
-        <v>1.030490414647092</v>
+        <v>1.052418149335159</v>
       </c>
       <c r="N18">
-        <v>1.005710256126258</v>
+        <v>1.013470565724096</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9775276758472731</v>
+        <v>1.022157051982807</v>
       </c>
       <c r="D19">
-        <v>1.031265650747873</v>
+        <v>1.047683490345285</v>
       </c>
       <c r="E19">
-        <v>1.000378372851636</v>
+        <v>1.034511532772886</v>
       </c>
       <c r="F19">
-        <v>1.017317608845233</v>
+        <v>1.049207348346532</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.053653119649769</v>
+        <v>1.038785689940682</v>
       </c>
       <c r="J19">
-        <v>1.00532762246545</v>
+        <v>1.028325489180012</v>
       </c>
       <c r="K19">
-        <v>1.044503902122182</v>
+        <v>1.050953613361568</v>
       </c>
       <c r="L19">
-        <v>1.014126069902141</v>
+        <v>1.037826264663236</v>
       </c>
       <c r="M19">
-        <v>1.030780988830591</v>
+        <v>1.05247238994063</v>
       </c>
       <c r="N19">
-        <v>1.005784140960085</v>
+        <v>1.013485461397204</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9758382500952202</v>
+        <v>1.021831831042157</v>
       </c>
       <c r="D20">
-        <v>1.02985736939035</v>
+        <v>1.047439540389094</v>
       </c>
       <c r="E20">
-        <v>0.9989639175082754</v>
+        <v>1.03422676413584</v>
       </c>
       <c r="F20">
-        <v>1.015703651164326</v>
+        <v>1.048900587115484</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.05308962193695</v>
+        <v>1.038727002875667</v>
       </c>
       <c r="J20">
-        <v>1.00433342367368</v>
+        <v>1.028124878427511</v>
       </c>
       <c r="K20">
-        <v>1.043394772581476</v>
+        <v>1.050773597024798</v>
       </c>
       <c r="L20">
-        <v>1.013025009675772</v>
+        <v>1.037606511122717</v>
       </c>
       <c r="M20">
-        <v>1.029475878966679</v>
+        <v>1.052229669104652</v>
       </c>
       <c r="N20">
-        <v>1.005452468160435</v>
+        <v>1.013418833517182</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9702370406703837</v>
+        <v>1.020774886994692</v>
       </c>
       <c r="D21">
-        <v>1.025169522688829</v>
+        <v>1.046643301930103</v>
       </c>
       <c r="E21">
-        <v>0.9942791831495464</v>
+        <v>1.033301049503434</v>
       </c>
       <c r="F21">
-        <v>1.010344031027635</v>
+        <v>1.047901635203118</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.051191254100568</v>
+        <v>1.038532335365988</v>
       </c>
       <c r="J21">
-        <v>1.001034085692408</v>
+        <v>1.027472228742857</v>
       </c>
       <c r="K21">
-        <v>1.039689241360205</v>
+        <v>1.050184275091314</v>
       </c>
       <c r="L21">
-        <v>1.009369754802501</v>
+        <v>1.03689126109344</v>
       </c>
       <c r="M21">
-        <v>1.025132047266312</v>
+        <v>1.051438036082738</v>
       </c>
       <c r="N21">
-        <v>1.004351723968141</v>
+        <v>1.01320202913486</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.966627591915993</v>
+        <v>1.020110639324159</v>
       </c>
       <c r="D22">
-        <v>1.022134812568392</v>
+        <v>1.046140281966011</v>
       </c>
       <c r="E22">
-        <v>0.9912644121764537</v>
+        <v>1.032719095402777</v>
       </c>
       <c r="F22">
-        <v>1.006884049517138</v>
+        <v>1.047272303257636</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.0499451742779</v>
+        <v>1.038406978476819</v>
       </c>
       <c r="J22">
-        <v>0.9989057740174277</v>
+        <v>1.027061544725953</v>
       </c>
       <c r="K22">
-        <v>1.037280168289886</v>
+        <v>1.049810631993413</v>
       </c>
       <c r="L22">
-        <v>1.007010932062838</v>
+        <v>1.036440938945954</v>
       </c>
       <c r="M22">
-        <v>1.022320354563537</v>
+        <v>1.050938376905903</v>
       </c>
       <c r="N22">
-        <v>1.003641635532223</v>
+        <v>1.013065570791359</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.968549642581507</v>
+        <v>1.020462741413164</v>
       </c>
       <c r="D23">
-        <v>1.023752072642979</v>
+        <v>1.046407168664822</v>
       </c>
       <c r="E23">
-        <v>0.9928693833583356</v>
+        <v>1.033027592365352</v>
       </c>
       <c r="F23">
-        <v>1.008727064225646</v>
+        <v>1.047606042184994</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.05061082997101</v>
+        <v>1.038473712962144</v>
       </c>
       <c r="J23">
-        <v>1.000039304913425</v>
+        <v>1.027279287828542</v>
       </c>
       <c r="K23">
-        <v>1.038564969805111</v>
+        <v>1.050009001850698</v>
       </c>
       <c r="L23">
-        <v>1.008267313867313</v>
+        <v>1.036679721323571</v>
       </c>
       <c r="M23">
-        <v>1.023818742844955</v>
+        <v>1.051203438022099</v>
       </c>
       <c r="N23">
-        <v>1.004019827653395</v>
+        <v>1.01313792358189</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9759307316227731</v>
+        <v>1.02184955580497</v>
       </c>
       <c r="D24">
-        <v>1.029934532020562</v>
+        <v>1.047452848738414</v>
       </c>
       <c r="E24">
-        <v>0.9990413297280961</v>
+        <v>1.034242285124858</v>
       </c>
       <c r="F24">
-        <v>1.015792034605447</v>
+        <v>1.048917313366415</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.053120581816973</v>
+        <v>1.03873021622624</v>
       </c>
       <c r="J24">
-        <v>1.004387859614719</v>
+        <v>1.028135814417198</v>
       </c>
       <c r="K24">
-        <v>1.043455594515027</v>
+        <v>1.050783424202306</v>
       </c>
       <c r="L24">
-        <v>1.013085301632554</v>
+        <v>1.037618491872079</v>
       </c>
       <c r="M24">
-        <v>1.029547386144039</v>
+        <v>1.05224290815719</v>
       </c>
       <c r="N24">
-        <v>1.005470628688821</v>
+        <v>1.01342246579712</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9841419095196784</v>
+        <v>1.023460140124081</v>
       </c>
       <c r="D25">
-        <v>1.036750617145968</v>
+        <v>1.048655824234922</v>
       </c>
       <c r="E25">
-        <v>1.005922187726085</v>
+        <v>1.035652174647054</v>
       </c>
       <c r="F25">
-        <v>1.023622916697131</v>
+        <v>1.050433476276608</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.055814641155359</v>
+        <v>1.039014945910028</v>
       </c>
       <c r="J25">
-        <v>1.009215006689126</v>
+        <v>1.02912827343809</v>
       </c>
       <c r="K25">
-        <v>1.048804009259714</v>
+        <v>1.051668491952341</v>
       </c>
       <c r="L25">
-        <v>1.018429259763502</v>
+        <v>1.038705168576207</v>
       </c>
       <c r="M25">
-        <v>1.035865260243032</v>
+        <v>1.053440715872997</v>
       </c>
       <c r="N25">
-        <v>1.00708088240242</v>
+        <v>1.013752021718461</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_94/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_94/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.024745733218082</v>
+        <v>0.9904331619606676</v>
       </c>
       <c r="D2">
-        <v>1.049606799248559</v>
+        <v>1.041919665691323</v>
       </c>
       <c r="E2">
-        <v>1.036776901417529</v>
+        <v>1.011203698343633</v>
       </c>
       <c r="F2">
-        <v>1.051638280568072</v>
+        <v>1.02959716080051</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039231582915969</v>
+        <v>1.057797422607535</v>
       </c>
       <c r="J2">
-        <v>1.029918625759161</v>
+        <v>1.01290382989363</v>
       </c>
       <c r="K2">
-        <v>1.052363388078976</v>
+        <v>1.052824323897521</v>
       </c>
       <c r="L2">
-        <v>1.039569674389972</v>
+        <v>1.022509123679044</v>
       </c>
       <c r="M2">
-        <v>1.054389227793618</v>
+        <v>1.040659002444015</v>
       </c>
       <c r="N2">
-        <v>1.014014349005517</v>
+        <v>1.008311132779805</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.025679754426089</v>
+        <v>0.9948639135115159</v>
       </c>
       <c r="D3">
-        <v>1.050292319505274</v>
+        <v>1.045527344134303</v>
       </c>
       <c r="E3">
-        <v>1.037593648790926</v>
+        <v>1.014927762858424</v>
       </c>
       <c r="F3">
-        <v>1.052510448914736</v>
+        <v>1.033788531669704</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039382792865286</v>
+        <v>1.05914530799548</v>
       </c>
       <c r="J3">
-        <v>1.030491765034563</v>
+        <v>1.015495579470025</v>
       </c>
       <c r="K3">
-        <v>1.052861515574064</v>
+        <v>1.055609038438471</v>
       </c>
       <c r="L3">
-        <v>1.040196074380964</v>
+        <v>1.025373137681693</v>
       </c>
       <c r="M3">
-        <v>1.055073929407504</v>
+        <v>1.044006591701731</v>
       </c>
       <c r="N3">
-        <v>1.01420451217778</v>
+        <v>1.009175291352295</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.026284387139818</v>
+        <v>0.9976711249455295</v>
       </c>
       <c r="D4">
-        <v>1.050733584677209</v>
+        <v>1.047797312416629</v>
       </c>
       <c r="E4">
-        <v>1.038122176026911</v>
+        <v>1.017288962493231</v>
       </c>
       <c r="F4">
-        <v>1.053073575717682</v>
+        <v>1.036436201683593</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039477811958181</v>
+        <v>1.059976346635497</v>
       </c>
       <c r="J4">
-        <v>1.030862283780101</v>
+        <v>1.017134591778316</v>
       </c>
       <c r="K4">
-        <v>1.053180851901997</v>
+        <v>1.057351160696392</v>
       </c>
       <c r="L4">
-        <v>1.040600785779166</v>
+        <v>1.027183108670008</v>
       </c>
       <c r="M4">
-        <v>1.055515116286644</v>
+        <v>1.046113896587846</v>
       </c>
       <c r="N4">
-        <v>1.014327415501061</v>
+        <v>1.00972166936038</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.026538635791623</v>
+        <v>0.9988374842169651</v>
       </c>
       <c r="D5">
-        <v>1.050918536960051</v>
+        <v>1.048736580378115</v>
       </c>
       <c r="E5">
-        <v>1.038344376388188</v>
+        <v>1.018270376948548</v>
       </c>
       <c r="F5">
-        <v>1.053310019406072</v>
+        <v>1.037534322605872</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039517080790841</v>
+        <v>1.060316052516457</v>
       </c>
       <c r="J5">
-        <v>1.03101796743739</v>
+        <v>1.017814818815897</v>
       </c>
       <c r="K5">
-        <v>1.053314384312616</v>
+        <v>1.058069572378268</v>
       </c>
       <c r="L5">
-        <v>1.040770778979461</v>
+        <v>1.027933983689659</v>
       </c>
       <c r="M5">
-        <v>1.055700144144649</v>
+        <v>1.046986113605546</v>
       </c>
       <c r="N5">
-        <v>1.014379049041113</v>
+        <v>1.009948399275695</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.026581328815064</v>
+        <v>0.999032526868375</v>
       </c>
       <c r="D6">
-        <v>1.050949558621761</v>
+        <v>1.048893417656779</v>
       </c>
       <c r="E6">
-        <v>1.038381685206994</v>
+        <v>1.018434512722505</v>
       </c>
       <c r="F6">
-        <v>1.05334970200362</v>
+        <v>1.037717837739889</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039523634455435</v>
+        <v>1.060372529156141</v>
       </c>
       <c r="J6">
-        <v>1.031044102549844</v>
+        <v>1.017928523204957</v>
       </c>
       <c r="K6">
-        <v>1.053336762916419</v>
+        <v>1.058189386608417</v>
       </c>
       <c r="L6">
-        <v>1.040799312904771</v>
+        <v>1.028059479174663</v>
       </c>
       <c r="M6">
-        <v>1.055731184869974</v>
+        <v>1.047131770458625</v>
       </c>
       <c r="N6">
-        <v>1.01438771647711</v>
+        <v>1.009986296874446</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.026287784183902</v>
+        <v>0.99768676342203</v>
       </c>
       <c r="D7">
-        <v>1.050736058204455</v>
+        <v>1.047809921490626</v>
       </c>
       <c r="E7">
-        <v>1.038125145051266</v>
+        <v>1.017302119851168</v>
       </c>
       <c r="F7">
-        <v>1.053076736250477</v>
+        <v>1.036450933012501</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039478339332684</v>
+        <v>1.059980923533011</v>
       </c>
       <c r="J7">
-        <v>1.030864364357733</v>
+        <v>1.017143715265327</v>
       </c>
       <c r="K7">
-        <v>1.053182638986734</v>
+        <v>1.057360814637905</v>
       </c>
       <c r="L7">
-        <v>1.040603057817562</v>
+        <v>1.02719318093194</v>
       </c>
       <c r="M7">
-        <v>1.055517590396889</v>
+        <v>1.046125604507028</v>
       </c>
       <c r="N7">
-        <v>1.014328105568946</v>
+        <v>1.009724710474658</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.025061336028103</v>
+        <v>0.9919432547734398</v>
       </c>
       <c r="D8">
-        <v>1.049838951592644</v>
+        <v>1.043152488875206</v>
       </c>
       <c r="E8">
-        <v>1.037052916526958</v>
+        <v>1.012472545853338</v>
       </c>
       <c r="F8">
-        <v>1.051933286469394</v>
+        <v>1.031027282089981</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039283269037104</v>
+        <v>1.058261578546934</v>
       </c>
       <c r="J8">
-        <v>1.030112390889133</v>
+        <v>1.013787775709129</v>
       </c>
       <c r="K8">
-        <v>1.052532349658661</v>
+        <v>1.053778014960923</v>
       </c>
       <c r="L8">
-        <v>1.039781495096846</v>
+        <v>1.023486177989033</v>
       </c>
       <c r="M8">
-        <v>1.054621010251458</v>
+        <v>1.041802751516472</v>
       </c>
       <c r="N8">
-        <v>1.014078645369558</v>
+        <v>1.008605886160902</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.022902193796433</v>
+        <v>0.9813398043508218</v>
       </c>
       <c r="D9">
-        <v>1.048240513146687</v>
+        <v>1.034432753070234</v>
       </c>
       <c r="E9">
-        <v>1.035163855848316</v>
+        <v>1.003572404407731</v>
       </c>
       <c r="F9">
-        <v>1.049909076536553</v>
+        <v>1.020954458612129</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038917952498597</v>
+        <v>1.054907932930285</v>
       </c>
       <c r="J9">
-        <v>1.02878474549903</v>
+        <v>1.007569158329795</v>
       </c>
       <c r="K9">
-        <v>1.051363671099026</v>
+        <v>1.046990836100068</v>
       </c>
       <c r="L9">
-        <v>1.038329163650463</v>
+        <v>1.01660778652722</v>
       </c>
       <c r="M9">
-        <v>1.053026938859836</v>
+        <v>1.033716472446996</v>
       </c>
       <c r="N9">
-        <v>1.013637967888356</v>
+        <v>1.006531892686076</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.021464167088691</v>
+        <v>0.973909233711547</v>
       </c>
       <c r="D10">
-        <v>1.047163152865996</v>
+        <v>1.028246056951284</v>
       </c>
       <c r="E10">
-        <v>1.033904789756183</v>
+        <v>0.9973496795626871</v>
       </c>
       <c r="F10">
-        <v>1.048553440379353</v>
+        <v>1.013859272805147</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038659964896189</v>
+        <v>1.052440932591677</v>
       </c>
       <c r="J10">
-        <v>1.027897967487849</v>
+        <v>1.003197671623559</v>
       </c>
       <c r="K10">
-        <v>1.050569335272481</v>
+        <v>1.042123384593396</v>
       </c>
       <c r="L10">
-        <v>1.037357891010396</v>
+        <v>1.011766951814072</v>
       </c>
       <c r="M10">
-        <v>1.051954778524046</v>
+        <v>1.027982722747215</v>
       </c>
       <c r="N10">
-        <v>1.013343463122549</v>
+        <v>1.005073560725495</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.020841826904105</v>
+        <v>0.9705969036902453</v>
       </c>
       <c r="D11">
-        <v>1.046693883290853</v>
+        <v>1.025471518114146</v>
       </c>
       <c r="E11">
-        <v>1.03335968871655</v>
+        <v>0.9945799360686423</v>
       </c>
       <c r="F11">
-        <v>1.047964991684629</v>
+        <v>1.010688741153571</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038544840510274</v>
+        <v>1.051314545533252</v>
       </c>
       <c r="J11">
-        <v>1.027513593657428</v>
+        <v>1.001246191132953</v>
       </c>
       <c r="K11">
-        <v>1.050221790361723</v>
+        <v>1.039928551131484</v>
       </c>
       <c r="L11">
-        <v>1.036936608022751</v>
+        <v>1.009604795861081</v>
       </c>
       <c r="M11">
-        <v>1.051488298490576</v>
+        <v>1.025411859873968</v>
       </c>
       <c r="N11">
-        <v>1.013215772106622</v>
+        <v>1.004422489812864</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.020610712985719</v>
+        <v>0.9693514705564704</v>
       </c>
       <c r="D12">
-        <v>1.046519161888694</v>
+        <v>1.024425908159863</v>
       </c>
       <c r="E12">
-        <v>1.033157227550214</v>
+        <v>0.9935392115186956</v>
       </c>
       <c r="F12">
-        <v>1.047746199263504</v>
+        <v>1.009495549962973</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038501566209243</v>
+        <v>1.050887110296647</v>
       </c>
       <c r="J12">
-        <v>1.027370761752021</v>
+        <v>1.000512054887268</v>
       </c>
       <c r="K12">
-        <v>1.050092158529936</v>
+        <v>1.039099645276114</v>
       </c>
       <c r="L12">
-        <v>1.036780018204436</v>
+        <v>1.008791245704666</v>
       </c>
       <c r="M12">
-        <v>1.051314693679729</v>
+        <v>1.02444306361654</v>
       </c>
       <c r="N12">
-        <v>1.013168316924544</v>
+        <v>1.004177555294126</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.020660285390849</v>
+        <v>0.9696193170098865</v>
       </c>
       <c r="D13">
-        <v>1.046556658920619</v>
+        <v>1.024650885835622</v>
       </c>
       <c r="E13">
-        <v>1.033200655522154</v>
+        <v>0.9937630001071448</v>
       </c>
       <c r="F13">
-        <v>1.04779314075043</v>
+        <v>1.009752208255015</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038510871846914</v>
+        <v>1.050979211095934</v>
       </c>
       <c r="J13">
-        <v>1.027401402309829</v>
+        <v>1.000669956928433</v>
       </c>
       <c r="K13">
-        <v>1.050119989327629</v>
+        <v>1.039278075182721</v>
       </c>
       <c r="L13">
-        <v>1.036813612059138</v>
+        <v>1.008966235469566</v>
       </c>
       <c r="M13">
-        <v>1.051351947565453</v>
+        <v>1.024651511602972</v>
       </c>
       <c r="N13">
-        <v>1.013178497351721</v>
+        <v>1.004230237335965</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.020822721912856</v>
+        <v>0.970494268617162</v>
       </c>
       <c r="D14">
-        <v>1.046679449196768</v>
+        <v>1.025385398062058</v>
       </c>
       <c r="E14">
-        <v>1.033342952928587</v>
+        <v>0.9944941562774733</v>
       </c>
       <c r="F14">
-        <v>1.047946910641071</v>
+        <v>1.010590432627031</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038541273881887</v>
+        <v>1.051279399975429</v>
       </c>
       <c r="J14">
-        <v>1.027501788313854</v>
+        <v>1.001185699112664</v>
       </c>
       <c r="K14">
-        <v>1.050211085924103</v>
+        <v>1.03986031521644</v>
       </c>
       <c r="L14">
-        <v>1.036923666427923</v>
+        <v>1.009537763367281</v>
       </c>
       <c r="M14">
-        <v>1.051473955055704</v>
+        <v>1.025332065462269</v>
       </c>
       <c r="N14">
-        <v>1.01321184995604</v>
+        <v>1.004402307565459</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.020922811183189</v>
+        <v>0.9710313300015602</v>
       </c>
       <c r="D15">
-        <v>1.046755049557446</v>
+        <v>1.025835944349075</v>
       </c>
       <c r="E15">
-        <v>1.033430628898143</v>
+        <v>0.9949430473784235</v>
       </c>
       <c r="F15">
-        <v>1.048041624714135</v>
+        <v>1.01110481110593</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038559937764736</v>
+        <v>1.051463148130459</v>
       </c>
       <c r="J15">
-        <v>1.027563631733045</v>
+        <v>1.001502222078484</v>
       </c>
       <c r="K15">
-        <v>1.050267142274687</v>
+        <v>1.04021722710977</v>
       </c>
       <c r="L15">
-        <v>1.036991460464477</v>
+        <v>1.009888502805059</v>
       </c>
       <c r="M15">
-        <v>1.051549083762683</v>
+        <v>1.02574952063557</v>
       </c>
       <c r="N15">
-        <v>1.013232396284331</v>
+        <v>1.004507910470448</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.021505476866041</v>
+        <v>0.9741269938581234</v>
       </c>
       <c r="D16">
-        <v>1.047194238622486</v>
+        <v>1.02842812404677</v>
       </c>
       <c r="E16">
-        <v>1.033940968164234</v>
+        <v>0.9975318614553589</v>
       </c>
       <c r="F16">
-        <v>1.048592463363565</v>
+        <v>1.014067557295895</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038667533473614</v>
+        <v>1.052514436146838</v>
       </c>
       <c r="J16">
-        <v>1.027923468891651</v>
+        <v>1.003325911380884</v>
       </c>
       <c r="K16">
-        <v>1.05059232512948</v>
+        <v>1.042267165601783</v>
       </c>
       <c r="L16">
-        <v>1.037385835180243</v>
+        <v>1.011909013106881</v>
       </c>
       <c r="M16">
-        <v>1.051985690448207</v>
+        <v>1.028151433691309</v>
       </c>
       <c r="N16">
-        <v>1.01335193402701</v>
+        <v>1.005116344363867</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.021871057753944</v>
+        <v>0.9760428579756734</v>
       </c>
       <c r="D17">
-        <v>1.047468991135284</v>
+        <v>1.030028074517132</v>
       </c>
       <c r="E17">
-        <v>1.034261113531735</v>
+        <v>0.9991351884314499</v>
       </c>
       <c r="F17">
-        <v>1.048937602853318</v>
+        <v>1.015899187294663</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038734112055971</v>
+        <v>1.053158100752424</v>
       </c>
       <c r="J17">
-        <v>1.028149080494599</v>
+        <v>1.004453856932508</v>
       </c>
       <c r="K17">
-        <v>1.050795343079931</v>
+        <v>1.04352931979774</v>
       </c>
       <c r="L17">
-        <v>1.037633025123891</v>
+        <v>1.013158397937163</v>
       </c>
       <c r="M17">
-        <v>1.052258966846001</v>
+        <v>1.02963407303254</v>
       </c>
       <c r="N17">
-        <v>1.013426871967402</v>
+        <v>1.005492646202989</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.022084327169375</v>
+        <v>0.9771512577900867</v>
       </c>
       <c r="D18">
-        <v>1.047628982689371</v>
+        <v>1.030952115342136</v>
       </c>
       <c r="E18">
-        <v>1.034447856827681</v>
+        <v>1.000063163740355</v>
       </c>
       <c r="F18">
-        <v>1.049138776953104</v>
+        <v>1.016958118068586</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038772616748315</v>
+        <v>1.053527949820812</v>
       </c>
       <c r="J18">
-        <v>1.028280637950342</v>
+        <v>1.005106147874715</v>
       </c>
       <c r="K18">
-        <v>1.050913413315588</v>
+        <v>1.044257139004679</v>
       </c>
       <c r="L18">
-        <v>1.037777137736096</v>
+        <v>1.01388080698493</v>
       </c>
       <c r="M18">
-        <v>1.052418149335159</v>
+        <v>1.030490414647092</v>
       </c>
       <c r="N18">
-        <v>1.013470565724096</v>
+        <v>1.005710256126258</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.022157051982807</v>
+        <v>0.9775276758472735</v>
       </c>
       <c r="D19">
-        <v>1.047683490345285</v>
+        <v>1.031265650747874</v>
       </c>
       <c r="E19">
-        <v>1.034511532772886</v>
+        <v>1.000378372851636</v>
       </c>
       <c r="F19">
-        <v>1.049207348346532</v>
+        <v>1.017317608845233</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038785689940682</v>
+        <v>1.05365311964977</v>
       </c>
       <c r="J19">
-        <v>1.028325489180012</v>
+        <v>1.00532762246545</v>
       </c>
       <c r="K19">
-        <v>1.050953613361568</v>
+        <v>1.044503902122183</v>
       </c>
       <c r="L19">
-        <v>1.037826264663236</v>
+        <v>1.014126069902141</v>
       </c>
       <c r="M19">
-        <v>1.05247238994063</v>
+        <v>1.030780988830592</v>
       </c>
       <c r="N19">
-        <v>1.013485461397204</v>
+        <v>1.005784140960085</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.021831831042157</v>
+        <v>0.97583825009522</v>
       </c>
       <c r="D20">
-        <v>1.047439540389094</v>
+        <v>1.029857369390349</v>
       </c>
       <c r="E20">
-        <v>1.03422676413584</v>
+        <v>0.9989639175082751</v>
       </c>
       <c r="F20">
-        <v>1.048900587115484</v>
+        <v>1.015703651164326</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038727002875667</v>
+        <v>1.05308962193695</v>
       </c>
       <c r="J20">
-        <v>1.028124878427511</v>
+        <v>1.00433342367368</v>
       </c>
       <c r="K20">
-        <v>1.050773597024798</v>
+        <v>1.043394772581475</v>
       </c>
       <c r="L20">
-        <v>1.037606511122717</v>
+        <v>1.013025009675772</v>
       </c>
       <c r="M20">
-        <v>1.052229669104652</v>
+        <v>1.029475878966679</v>
       </c>
       <c r="N20">
-        <v>1.013418833517182</v>
+        <v>1.005452468160435</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.020774886994692</v>
+        <v>0.9702370406703837</v>
       </c>
       <c r="D21">
-        <v>1.046643301930103</v>
+        <v>1.025169522688829</v>
       </c>
       <c r="E21">
-        <v>1.033301049503434</v>
+        <v>0.9942791831495466</v>
       </c>
       <c r="F21">
-        <v>1.047901635203118</v>
+        <v>1.010344031027635</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038532335365988</v>
+        <v>1.051191254100568</v>
       </c>
       <c r="J21">
-        <v>1.027472228742857</v>
+        <v>1.001034085692408</v>
       </c>
       <c r="K21">
-        <v>1.050184275091314</v>
+        <v>1.039689241360205</v>
       </c>
       <c r="L21">
-        <v>1.03689126109344</v>
+        <v>1.009369754802501</v>
       </c>
       <c r="M21">
-        <v>1.051438036082738</v>
+        <v>1.025132047266312</v>
       </c>
       <c r="N21">
-        <v>1.01320202913486</v>
+        <v>1.004351723968141</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.020110639324159</v>
+        <v>0.9666275919159932</v>
       </c>
       <c r="D22">
-        <v>1.046140281966011</v>
+        <v>1.022134812568392</v>
       </c>
       <c r="E22">
-        <v>1.032719095402777</v>
+        <v>0.991264412176454</v>
       </c>
       <c r="F22">
-        <v>1.047272303257636</v>
+        <v>1.006884049517138</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038406978476819</v>
+        <v>1.0499451742779</v>
       </c>
       <c r="J22">
-        <v>1.027061544725953</v>
+        <v>0.9989057740174282</v>
       </c>
       <c r="K22">
-        <v>1.049810631993413</v>
+        <v>1.037280168289887</v>
       </c>
       <c r="L22">
-        <v>1.036440938945954</v>
+        <v>1.007010932062839</v>
       </c>
       <c r="M22">
-        <v>1.050938376905903</v>
+        <v>1.022320354563538</v>
       </c>
       <c r="N22">
-        <v>1.013065570791359</v>
+        <v>1.003641635532223</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.020462741413164</v>
+        <v>0.9685496425815072</v>
       </c>
       <c r="D23">
-        <v>1.046407168664822</v>
+        <v>1.023752072642979</v>
       </c>
       <c r="E23">
-        <v>1.033027592365352</v>
+        <v>0.9928693833583357</v>
       </c>
       <c r="F23">
-        <v>1.047606042184994</v>
+        <v>1.008727064225646</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038473712962144</v>
+        <v>1.05061082997101</v>
       </c>
       <c r="J23">
-        <v>1.027279287828542</v>
+        <v>1.000039304913425</v>
       </c>
       <c r="K23">
-        <v>1.050009001850698</v>
+        <v>1.038564969805111</v>
       </c>
       <c r="L23">
-        <v>1.036679721323571</v>
+        <v>1.008267313867313</v>
       </c>
       <c r="M23">
-        <v>1.051203438022099</v>
+        <v>1.023818742844955</v>
       </c>
       <c r="N23">
-        <v>1.01313792358189</v>
+        <v>1.004019827653395</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.02184955580497</v>
+        <v>0.9759307316227728</v>
       </c>
       <c r="D24">
-        <v>1.047452848738414</v>
+        <v>1.029934532020562</v>
       </c>
       <c r="E24">
-        <v>1.034242285124858</v>
+        <v>0.999041329728096</v>
       </c>
       <c r="F24">
-        <v>1.048917313366415</v>
+        <v>1.015792034605447</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03873021622624</v>
+        <v>1.053120581816973</v>
       </c>
       <c r="J24">
-        <v>1.028135814417198</v>
+        <v>1.004387859614719</v>
       </c>
       <c r="K24">
-        <v>1.050783424202306</v>
+        <v>1.043455594515027</v>
       </c>
       <c r="L24">
-        <v>1.037618491872079</v>
+        <v>1.013085301632554</v>
       </c>
       <c r="M24">
-        <v>1.05224290815719</v>
+        <v>1.029547386144038</v>
       </c>
       <c r="N24">
-        <v>1.01342246579712</v>
+        <v>1.005470628688821</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.023460140124081</v>
+        <v>0.9841419095196785</v>
       </c>
       <c r="D25">
-        <v>1.048655824234922</v>
+        <v>1.036750617145968</v>
       </c>
       <c r="E25">
-        <v>1.035652174647054</v>
+        <v>1.005922187726085</v>
       </c>
       <c r="F25">
-        <v>1.050433476276608</v>
+        <v>1.023622916697131</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039014945910028</v>
+        <v>1.055814641155359</v>
       </c>
       <c r="J25">
-        <v>1.02912827343809</v>
+        <v>1.009215006689126</v>
       </c>
       <c r="K25">
-        <v>1.051668491952341</v>
+        <v>1.048804009259714</v>
       </c>
       <c r="L25">
-        <v>1.038705168576207</v>
+        <v>1.018429259763502</v>
       </c>
       <c r="M25">
-        <v>1.053440715872997</v>
+        <v>1.035865260243032</v>
       </c>
       <c r="N25">
-        <v>1.013752021718461</v>
+        <v>1.00708088240242</v>
       </c>
     </row>
   </sheetData>
